--- a/ig/ch-core/StructureDefinition-ch-ext-responsible.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-ext-responsible.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
